--- a/data/processed/documents/APP-000024/assets_liabilities.xlsx
+++ b/data/processed/documents/APP-000024/assets_liabilities.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Salim Al Qassimi</t>
+          <t>Amr Al Dhaheri</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>6500</v>
+        <v>4723.3</v>
       </c>
     </row>
     <row r="6">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>153538</v>
+        <v>291050</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>111769</v>
+        <v>219183</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>41769</v>
+        <v>71867</v>
       </c>
     </row>
     <row r="9">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B9" s="5" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>
@@ -608,11 +608,11 @@
       </c>
       <c r="B2" s="7" t="inlineStr">
         <is>
-          <t>Mid-range Car</t>
+          <t>Premium Car</t>
         </is>
       </c>
       <c r="C2" s="8" t="n">
-        <v>145147</v>
+        <v>283151</v>
       </c>
     </row>
     <row r="3">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C3" s="8" t="n">
-        <v>8391</v>
+        <v>7899</v>
       </c>
     </row>
     <row r="4">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C4" s="10" t="n">
-        <v>153538</v>
+        <v>291050</v>
       </c>
     </row>
   </sheetData>
@@ -651,7 +651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -705,44 +705,65 @@
         </is>
       </c>
       <c r="C2" s="8" t="n">
-        <v>87088</v>
+        <v>169891</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>2419</v>
+        <v>3539</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
+          <t>Personal Loans</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>Personal Loan</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>26742</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>557</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
           <t>Credit Cards</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
         <is>
           <t>Credit Card Balance</t>
         </is>
       </c>
-      <c r="C3" s="8" t="n">
-        <v>24681</v>
-      </c>
-      <c r="D3" s="8" t="n">
-        <v>1234</v>
-      </c>
-      <c r="E3" s="7" t="n">
+      <c r="C4" s="8" t="n">
+        <v>22550</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>1128</v>
+      </c>
+      <c r="E4" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="9" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>TOTAL LIABILITIES</t>
         </is>
       </c>
-      <c r="C4" s="12" t="n">
-        <v>111769</v>
+      <c r="C5" s="12" t="n">
+        <v>219183</v>
       </c>
     </row>
   </sheetData>
